--- a/OGLBatchFile.xlsx
+++ b/OGLBatchFile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nilimapradipm\PycharmProjects\DataReckon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33303609-A2F8-42AB-B156-1681B924CCED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37E4CC57-5F08-43B0-9371-61FFD631CC7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{15699766-7FB0-4284-8812-5FDF7E67E52E}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
   <si>
     <t>AED</t>
   </si>
@@ -78,6 +78,21 @@
   </si>
   <si>
     <t>T24_UKC_20210616 Interface AED</t>
+  </si>
+  <si>
+    <t>TI_UKC</t>
+  </si>
+  <si>
+    <t>MX_UKC</t>
+  </si>
+  <si>
+    <t>TI_UKC_20210616 Interface AED</t>
+  </si>
+  <si>
+    <t>MX_UKC_20210616 Interface AED</t>
+  </si>
+  <si>
+    <t>as</t>
   </si>
 </sst>
 </file>
@@ -437,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED667C1A-BDA8-40DC-B4B7-D94B71B03E76}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -450,7 +465,7 @@
     <col min="7" max="8" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -479,7 +494,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -506,6 +521,69 @@
       </c>
       <c r="I2">
         <v>372</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2">
+        <v>44217</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>333</v>
+      </c>
+      <c r="I3">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2">
+        <v>44217</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>333</v>
+      </c>
+      <c r="I4">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K11" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
